--- a/text.xlsx
+++ b/text.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPY35\Desktop\PYE\anki_th_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2FA1E3-1D7F-462B-BA1C-3F1DD45525C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD2BA3B-EAF7-4231-8668-C40319132727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{709CD5AC-28F5-4E1A-B440-37CF72E1A49D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{709CD5AC-28F5-4E1A-B440-37CF72E1A49D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="layout" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="livereload" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,13 +38,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,8 +72,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4583,6 +4594,6415 @@
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>125504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>320448</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387001B0-673D-4A04-A667-DF69742B8592}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="735106" y="125504"/>
+          <a:ext cx="14377107" cy="15562731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050">
+            <a:alpha val="50000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>80681</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>636494</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC637836-BA1F-4BAC-9E91-E3C597E4FC90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3442446" y="3827929"/>
+          <a:ext cx="4589930" cy="4688542"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="99FFCC"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;span style="color:rgb(233, 253, 226); font-size:50px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>夜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/br&gt;&lt;/rt&gt;&lt;/ruby&gt;&lt;/span&gt;@&lt;span style="color:rgb(102, 255, 153); font-size:30px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>夜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>よる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(102, 255, 153); font-size:30px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ตอนเย็น,ช่วงเย็น&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(120, 120, 255); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>暗夜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>あんや</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(120, 120, 255); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>คืนข้างแรม,คืนเดือนมืด&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(120, 176, 255); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>闇夜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>あんや</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(120, 176, 255); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>คืนข้างแรม,คืนเดือนมืด&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(120, 255, 255); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>一夜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>いちや</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(120, 255, 255); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>คืนหนึ่ง&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(132, 255, 255); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>お七夜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>おしちや</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(132, 255, 255); font-size:20px"&gt;7 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>วันหลังเด็กเกิด&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(206, 255, 255); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>夜尿</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>やにょう</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(206, 255, 255); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>การฉี่รดที่นอน&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(255, 255, 206); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>今夜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>こんや</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(255, 255, 206); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ค่ำนี้,คืนนี้&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(255, 255, 132); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>昨夜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>さくや</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(255, 255, 132); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เมื่อคืนนี้ (ภาษาเขียน)&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(255, 255, 120); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>七夜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>しちや</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(255, 255, 120); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>คืนที่ 7,7 คืน,คืนที่ฉลองเด็กเกิดครบ 7 วัน&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(255, 205, 120); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>霜夜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>しもよ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(255, 205, 120); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>คืนที่มีน้ำค้างแข็ง&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(255, 120, 120); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>十五夜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>じゅうごや</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(255, 120, 120); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>คืนเดือนเพ็ญ,คืนวันขึ้น 15 ค่ำ,คืนพระจันทร์เต็มดวง&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;@&lt;span style="color:rgb(233, 253, 226); font-size:50px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>夜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>よる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;span style="color:rgb(233, 253, 226); font-size:50px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>曇り</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/br&gt;&lt;/rt&gt;&lt;/ruby&gt;&lt;/span&gt;@&lt;span style="color:rgb(102, 255, 153); font-size:30px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>曇り</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>くもり</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(102, 255, 153); font-size:30px"&gt;1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>มีเมฆ,เมฆ 2.มีฝ้า มัว 3.(อารมณ์) ขุ่นหมอง ไม่แจ่มใส&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(120, 120, 255); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>雨曇り</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>あまぐもり</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(120, 120, 255); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ครื้มฟ้าครื้มฝน&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(120, 196, 255); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>曇りガラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>くもりガラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(120, 196, 255); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>กระจกฝ้า&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(120, 255, 255); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>花曇り</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>はなぐもり</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(120, 255, 255); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ท้องฟ้าที่มีเมฆครึ้มช่วงที่ดอกซากุระบาน&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(161, 255, 255); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>曇り空</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>くもりそら</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(161, 255, 255); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ท้องฟ้ามืดครึ้ม&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(244, 255, 241); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>雨後曇・雨のち曇り</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>あめのちくもり・あめのちくもり</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(244, 255, 241); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ศัพท์พยากรณ์อากาศ หมายถึง ฝนตกจากนั้นจะมีเมฆมาก&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(255, 255, 161); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>曇後雨・曇りのち雨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>くもりのちあめ・くもりのちあめ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(255, 255, 161); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ศัพท์พยากรณ์อากาศ หมายถึง มีเมฆมากสลับฝนตกบ้างเป็นบางครั้ง&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(255, 255, 120); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>雨時々曇り</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>あめときどきくもり</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(255, 255, 120); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ศัพท์พยากรณ์อากาศ หมายถึง ฝนจะตกแทบตลอด สลับกับฟ้าครึ้ม (โดยในช่วงที่ฝนไม่ตก ฟ้าก็จะครึ้ม ไม่สดใส)&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(255, 223, 120); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>曇り空の夜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>くもりそらのよる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(255, 223, 120); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>คืนที่ฟ้ามืดมน &lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(255, 127, 120); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>曇り止めスプレー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>くもりどめのスプレー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(255, 127, 120); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สเปรย์น้ำยาป้องกันการเกิดฝ้า&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;@&lt;span style="color:rgb(233, 253, 226); font-size:50px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>曇り</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>くもり</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;span style="color:rgb(233, 253, 226); font-size:50px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>成る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/br&gt;&lt;/rt&gt;&lt;/ruby&gt;&lt;/span&gt;@&lt;span style="color:rgb(102, 255, 153); font-size:30px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>成る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>なる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(102, 255, 153); font-size:30px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>กลายเป็น,เสร็จสิ้น&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(120, 248, 255); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>成るべく</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>なるべく</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(120, 248, 255); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เท่าที่จะทำได้&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(244, 255, 241); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>為に成る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ためになる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(244, 255, 241); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>มีประโยชน์ เป็นประโยชน์ มีผลดีต่อ&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;&lt;span style="color:rgb(255, 255, 120); font-size:20px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>為せば成る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>なせばなる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(255, 255, 120); font-size:20px"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ถ้าตั้งใจก็ทำได้,ถ้าได้ทำก็ทำได้&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;@&lt;span style="color:rgb(233, 253, 226); font-size:50px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>成る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>なる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;span style="color:rgb(233, 253, 226); font-size:50px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>其の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/br&gt;&lt;/rt&gt;&lt;/ruby&gt;&lt;/span&gt;@&lt;span style="color:rgb(102, 255, 153); font-size:30px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>其の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>その</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt; : &lt;span style="color:rgb(102, 255, 153); font-size:30px"&gt;..</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>นั้น,คำชี้สิ่งที่อยู่ใกล้ตัวผู้ฟัง,คำชี้สิ่งที่กล่าวมาก่อนหน้านั้น&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>span&gt;&lt;br&gt;@&lt;span style="color:rgb(233, 253, 226); font-size:50px"&gt;&lt;ruby&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>其の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>その</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rt&gt;&lt;/ruby&gt;&lt;/span&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="th-TH" sz="500">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>322728</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>80681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C7432D2-E467-4EA1-887C-0E42EC72261E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1667434" y="3845857"/>
+          <a:ext cx="977155" cy="4572001"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="99FFCC"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>夜</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>曇り</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>成る</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>其の</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>今日</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>勉強</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>本当</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>体</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>上る</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>暖かい</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>練習</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>幾つ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>浴びる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>何時も</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>等</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>キロ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>否</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>七</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>四</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>生産</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>大抵</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>硬い</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>内</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>一致</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>猿</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>集団</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>根</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>鎖</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>列車</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>健康</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>人間</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>理解</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>人生</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>行動</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>政府</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>偶然</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>情報</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>昼食</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>期待</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>嵐</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>丘</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>都市</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>酒</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>解決</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>学者</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>患者</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>言語</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>海外</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>希望</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>愛</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>権利</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>教授</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>進歩</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>城</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>価格</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>意志</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>職業</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>家具</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>意識</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>逮捕</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>精神</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>牛</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>記憶</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>銃</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>禁煙</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>方向</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>攻撃</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>訓練</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>香り</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>波</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>流れ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>宝石</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>現金</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>軍隊</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>所為</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>其れでも</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>きつい</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>サイン</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>お目出度う</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>対</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>スイッチ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プラン</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ビデオ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クリーム</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>屯</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>マイク</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>所が</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>空く</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>仏</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>そっくり</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>にっこり</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>だけど</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>役</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>同時</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>暮れ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>正</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>尤も</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>対する</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>あんなに</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エネルギー</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>けち</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>計る</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>服装</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>宗教</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>青年</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107574</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>430305</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E65B1D-0807-493A-9687-0B6CBC3D8C4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1452280" y="1909482"/>
+          <a:ext cx="1667437" cy="555812"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="99FFCC"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>INPUT</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>385479</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251010</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>115045</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle: Rounded Corners 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FE1ECC-105F-4B01-AC5D-C092488B2893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419597" y="1945341"/>
+          <a:ext cx="1882589" cy="500528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="99FFCC"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OUTPUT</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>116540</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295836</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>170490</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle: Rounded Corners 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B7C9B69-DFF1-45AC-B498-D3C30AF11502}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8857128" y="2879014"/>
+          <a:ext cx="1524002" cy="1235947"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>txt.</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>125504</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>73421</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle: Rounded Corners 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75747E9C-3F7C-4D1C-AA9A-93BDE3F433F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8866092" y="5656729"/>
+          <a:ext cx="1524002" cy="1229868"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>zip mp3</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>636492</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>502022</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>70220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle: Rounded Corners 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF2BB32-9019-4171-BEBB-5C2AFF11805F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8704727" y="1900516"/>
+          <a:ext cx="1882589" cy="500528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Download</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>600636</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>141939</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle: Rounded Corners 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F158BC-813B-413E-BF23-231488C6816C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12837459" y="537882"/>
+          <a:ext cx="1882589" cy="500528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Home</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>600636</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7469</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle: Rounded Corners 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDE5C51-F8B4-449E-B8FB-5C1BFFD81F3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12837459" y="2375647"/>
+          <a:ext cx="1882589" cy="500528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Try it !</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>591671</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>150904</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle: Rounded Corners 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B97328-EFC3-4565-880B-463274847997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12828494" y="1443317"/>
+          <a:ext cx="1882589" cy="500528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Guide</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>475131</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>340661</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle: Rounded Corners 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A57A38B-A301-495D-A929-18F22CDBE8FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1147484" y="1658470"/>
+          <a:ext cx="1882589" cy="500527"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Mode</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>636494</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>45491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>78887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="翻訳機を使う人のイラスト">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F90836-9BAA-4503-862D-BF948D873A60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12738847" y="5424315"/>
+          <a:ext cx="2052917" cy="1826337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>555812</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466164</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle: Rounded Corners 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7647CDA2-4FB7-478F-843F-FDA4527EB752}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228165" y="358588"/>
+          <a:ext cx="13357411" cy="690283"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Anki</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Japanese &amp; English To Thai Card Generator</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>251012</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>89649</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle: Rounded Corners 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93F97C3-4105-4437-B7A8-3FA3DAF21256}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3612777" y="1308847"/>
+          <a:ext cx="3872754" cy="1461247"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561192</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>62756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>302161</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107844</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="31" name="Group 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{434F3C6F-222F-49A1-8DC9-6A3655D697A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5925672" y="2074436"/>
+          <a:ext cx="3093769" cy="1142368"/>
+          <a:chOff x="4177554" y="1479179"/>
+          <a:chExt cx="3102733" cy="1120853"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="23" name="Picture 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CDBED37-B737-41FA-9895-8094A4023BDC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5827059" y="1520232"/>
+            <a:ext cx="1453228" cy="1017045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="Picture 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF75FE0F-C907-457A-89D1-C5FDE3D1C59F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4177554" y="1479179"/>
+            <a:ext cx="1613646" cy="1120853"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358591</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle: Rounded Corners 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7EC72D-0395-430C-88C7-2219B6A3CD52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8426826" y="1335740"/>
+          <a:ext cx="3612775" cy="1461247"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>287819</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39894</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="35" name="Group 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97000A8D-B377-497D-9B8E-C975F450B643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8815892" y="1561652"/>
+          <a:ext cx="2871447" cy="1038562"/>
+          <a:chOff x="8310281" y="1570166"/>
+          <a:chExt cx="2878619" cy="1017047"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="36" name="Picture 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B8F8BB-86DA-440D-B89A-B267F9FDF4E3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8310281" y="1595716"/>
+            <a:ext cx="1427418" cy="991497"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="37" name="Picture 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA745657-5C12-462E-84A9-79F6D37296C4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9735672" y="1570166"/>
+            <a:ext cx="1453228" cy="1017045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>654423</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>618565</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>61259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle: Rounded Corners 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A942D222-5B3E-4625-ABD2-CE3AEDAC83A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12756776" y="4401671"/>
+          <a:ext cx="1981201" cy="500529"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Shared</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Deck</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>358587</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>564776</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle: Rounded Corners 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C31ABB-1B28-4120-B649-CC3D9967B745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1703293" y="9206752"/>
+          <a:ext cx="2895601" cy="788895"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Shared</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>663388</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>35860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle: Rounded Corners 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1393AA86-8C2C-4539-B7CB-0F354DF88358}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="663388" y="15042776"/>
+          <a:ext cx="14352494" cy="591672"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>412376</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466164</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle: Rounded Corners 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77C63EC3-D26B-407F-8476-B14B1DA9E65E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429435" y="15222071"/>
+          <a:ext cx="726141" cy="375023"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>En</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>242049</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>179292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295837</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>16433</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle: Rounded Corners 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF824F9A-4C57-448A-AEC2-F0A7D7E025B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1586755" y="15239998"/>
+          <a:ext cx="726141" cy="375023"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Th</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>71717</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>125505</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>16434</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle: Rounded Corners 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9869AD-9693-4AA1-BBBA-096015BF4058}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="744070" y="15239999"/>
+          <a:ext cx="726141" cy="375023"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Jp</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>367552</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>53787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>403411</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle: Rounded Corners 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE8023F-73ED-4A63-9268-9C0D8FF69453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1712258" y="10094258"/>
+          <a:ext cx="2725271" cy="788895"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="99FFCC"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Deck</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Name :</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>340658</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510988</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle: Rounded Corners 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D98CA1D-F1F7-4EDF-ACB7-8A3A456D1950}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685364" y="10981764"/>
+          <a:ext cx="2859742" cy="788895"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="99FFCC"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Author</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Name :</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>596829</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>8070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>525820</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>146457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC33DCA3-E5B2-45E6-B00B-D9A3452B40F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1267389" y="358590"/>
+          <a:ext cx="5964031" cy="6447747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>625200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>50588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>446107</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>109496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A57261A-D201-4EBC-92C7-7DEE922ACBCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295760" y="7762028"/>
+          <a:ext cx="5185387" cy="6543528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>162931</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>460040</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>77427</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4823E2C3-F946-4803-B741-571C3D2363E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7539091" y="289560"/>
+          <a:ext cx="3649909" cy="6447747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600930</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>74531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>253502</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>32718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E470049D-97B9-4C4E-B8AE-5E9B1341863D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7306530" y="7785971"/>
+          <a:ext cx="7028732" cy="4690207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>443030</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>175231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>589700</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>29912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A19FA995-14F1-4108-BE5F-85F995ACE277}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3125270" y="18928051"/>
+          <a:ext cx="8863950" cy="2308321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>37328</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>38815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123674</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>124879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FA63DC-2005-44EB-A6CC-E32DFC103691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2049008" y="23523655"/>
+          <a:ext cx="6121386" cy="3766524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>564731</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>169823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95530EC-3666-4AEF-8033-E59954368737}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="502920" y="1859280"/>
+          <a:ext cx="6096851" cy="1991003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{115318CB-6D5F-480C-9AC5-25D6A7FDEF0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="594360" y="1470660"/>
+          <a:ext cx="1600200" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>settings.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Speech Bubble: Rectangle with Corners Rounded 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE9EB0B-349A-4E8C-BB03-EB8557F5736B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6774180" y="1760220"/>
+          <a:ext cx="2125980" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -70210"/>
+            <a:gd name="adj2" fmla="val 68849"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>add</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 127.0.0.1 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Speech Bubble: Rectangle with Corners Rounded 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7473B8A-7534-42EE-85C0-6ADC49720F09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="3139440"/>
+          <a:ext cx="2103120" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -70210"/>
+            <a:gd name="adj2" fmla="val 68849"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>add</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> livereload</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB991E0-F846-48F1-8EE6-BCD1A57E3399}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="556260" y="403860"/>
+          <a:ext cx="2956560" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pip install livereload</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Speech Bubble: Rectangle with Corners Rounded 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E46B0B-18F6-43A8-BB95-9D1E394833C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4061460" y="4450080"/>
+          <a:ext cx="9052560" cy="998220"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -55816"/>
+            <a:gd name="adj2" fmla="val 11597"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>เหมือนรันเซิฟเวอร์</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> แต่เราไม่ต้องมา กด </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>F5 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>แก้โค้ด</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (html css) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>แล้วเซฟมันจะอัพเดทเองเลย แต่ต้องใช้ 127.0.0.1 แทน</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F36DEA-00BA-4F47-AB8D-30A8B3EF7166}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="563880" y="4953000"/>
+          <a:ext cx="2956560" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>manage.py livereload</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Speech Bubble: Rectangle with Corners Rounded 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A56555EC-9872-450C-8B95-737775FEA96A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="5958840"/>
+          <a:ext cx="7978140" cy="594360"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -51709"/>
+            <a:gd name="adj2" fmla="val -114044"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ใช้ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>debug</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>html css </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>เท่านั้น ไปแก้จุดอื่นที่ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>python </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>จะต้องรันใหม่</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
@@ -4894,138 +11314,188 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD8ACB7-771E-4864-A3B4-5501E0C45DD0}">
   <dimension ref="A78:A203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF113" sqref="AF113"/>
+    <sheetView topLeftCell="A187" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AH66" sqref="AH66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1"/>
+    <row r="79" customFormat="1"/>
+    <row r="80" customFormat="1"/>
+    <row r="81" customFormat="1"/>
+    <row r="82" customFormat="1"/>
+    <row r="83" customFormat="1"/>
+    <row r="84" customFormat="1"/>
+    <row r="85" customFormat="1"/>
+    <row r="86" customFormat="1"/>
+    <row r="87" customFormat="1"/>
+    <row r="88" customFormat="1"/>
+    <row r="89" customFormat="1"/>
+    <row r="90" customFormat="1"/>
+    <row r="91" customFormat="1"/>
+    <row r="92" customFormat="1"/>
+    <row r="93" customFormat="1"/>
+    <row r="94" customFormat="1"/>
+    <row r="95" customFormat="1"/>
+    <row r="96" customFormat="1"/>
+    <row r="97" customFormat="1"/>
+    <row r="98" customFormat="1"/>
+    <row r="99" customFormat="1"/>
+    <row r="100" customFormat="1"/>
+    <row r="101" customFormat="1"/>
+    <row r="102" customFormat="1"/>
+    <row r="103" customFormat="1"/>
+    <row r="104" customFormat="1"/>
+    <row r="105" customFormat="1"/>
+    <row r="106" customFormat="1"/>
+    <row r="107" customFormat="1"/>
+    <row r="108" customFormat="1"/>
+    <row r="109" customFormat="1"/>
+    <row r="110" customFormat="1"/>
+    <row r="111" customFormat="1"/>
+    <row r="112" customFormat="1"/>
+    <row r="113" customFormat="1"/>
+    <row r="114" customFormat="1"/>
+    <row r="115" customFormat="1"/>
+    <row r="116" customFormat="1"/>
+    <row r="117" customFormat="1"/>
+    <row r="118" customFormat="1"/>
+    <row r="119" customFormat="1"/>
+    <row r="120" customFormat="1"/>
+    <row r="121" customFormat="1"/>
+    <row r="122" customFormat="1"/>
+    <row r="123" customFormat="1"/>
+    <row r="124" customFormat="1"/>
+    <row r="125" customFormat="1"/>
+    <row r="126" customFormat="1"/>
+    <row r="127" customFormat="1"/>
+    <row r="128" customFormat="1"/>
+    <row r="129" customFormat="1"/>
+    <row r="130" customFormat="1"/>
+    <row r="131" customFormat="1"/>
+    <row r="132" customFormat="1"/>
+    <row r="133" customFormat="1"/>
+    <row r="134" customFormat="1"/>
+    <row r="135" customFormat="1"/>
+    <row r="136" customFormat="1"/>
+    <row r="137" customFormat="1"/>
+    <row r="138" customFormat="1"/>
+    <row r="139" customFormat="1"/>
+    <row r="140" customFormat="1"/>
+    <row r="141" customFormat="1"/>
+    <row r="142" customFormat="1"/>
+    <row r="143" customFormat="1"/>
+    <row r="144" customFormat="1"/>
+    <row r="145" customFormat="1"/>
+    <row r="146" customFormat="1"/>
+    <row r="147" customFormat="1"/>
+    <row r="148" customFormat="1"/>
+    <row r="149" customFormat="1"/>
+    <row r="150" customFormat="1"/>
+    <row r="151" customFormat="1"/>
+    <row r="152" customFormat="1"/>
+    <row r="153" customFormat="1"/>
+    <row r="154" customFormat="1"/>
+    <row r="155" customFormat="1"/>
+    <row r="156" customFormat="1"/>
+    <row r="157" customFormat="1"/>
+    <row r="158" customFormat="1"/>
+    <row r="159" customFormat="1"/>
+    <row r="160" customFormat="1"/>
+    <row r="161" customFormat="1"/>
+    <row r="162" customFormat="1"/>
+    <row r="163" customFormat="1"/>
+    <row r="164" customFormat="1"/>
+    <row r="165" customFormat="1"/>
+    <row r="166" customFormat="1"/>
+    <row r="167" customFormat="1"/>
+    <row r="168" customFormat="1"/>
+    <row r="169" customFormat="1"/>
+    <row r="170" customFormat="1"/>
+    <row r="171" customFormat="1"/>
+    <row r="172" customFormat="1"/>
+    <row r="173" customFormat="1"/>
+    <row r="174" customFormat="1"/>
+    <row r="175" customFormat="1"/>
+    <row r="176" customFormat="1"/>
+    <row r="177" customFormat="1"/>
+    <row r="178" customFormat="1"/>
+    <row r="179" customFormat="1"/>
+    <row r="180" customFormat="1"/>
+    <row r="181" customFormat="1"/>
+    <row r="182" customFormat="1"/>
+    <row r="183" customFormat="1"/>
+    <row r="184" customFormat="1"/>
+    <row r="185" customFormat="1"/>
+    <row r="186" customFormat="1"/>
+    <row r="187" customFormat="1"/>
+    <row r="188" customFormat="1"/>
+    <row r="189" customFormat="1"/>
+    <row r="190" customFormat="1"/>
+    <row r="191" customFormat="1"/>
+    <row r="192" customFormat="1"/>
+    <row r="193" customFormat="1"/>
+    <row r="194" customFormat="1"/>
+    <row r="195" customFormat="1"/>
+    <row r="196" customFormat="1"/>
+    <row r="197" customFormat="1"/>
+    <row r="198" customFormat="1"/>
+    <row r="199" customFormat="1"/>
+    <row r="200" customFormat="1"/>
+    <row r="201" customFormat="1"/>
+    <row r="202" customFormat="1"/>
+    <row r="203" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824013CA-CD54-4EF9-AC0D-7819523D3718}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A133" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AF105" sqref="AF105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8ED685-63E3-4608-B33E-8231914CA438}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF03134D-BF8C-4047-A648-6D3B291EA1C8}">
+  <dimension ref="C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/text.xlsx
+++ b/text.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPY35\Desktop\PYE\anki_th_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD2BA3B-EAF7-4231-8668-C40319132727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779E55B6-885A-4159-A31C-AC76DC321AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{709CD5AC-28F5-4E1A-B440-37CF72E1A49D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{709CD5AC-28F5-4E1A-B440-37CF72E1A49D}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="layout" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="home_page" sheetId="4" r:id="rId3"/>
     <sheet name="livereload" sheetId="3" r:id="rId4"/>
+    <sheet name="static" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3911,50 +3912,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>249381</xdr:colOff>
-      <xdr:row>251</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>438973</xdr:colOff>
-      <xdr:row>276</xdr:row>
-      <xdr:rowOff>8691</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E118BD72-22EC-4F83-B75C-3D4ABFDD887C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14879781" y="45359782"/>
-          <a:ext cx="5509737" cy="4359018"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>346364</xdr:colOff>
       <xdr:row>173</xdr:row>
@@ -8940,16 +8897,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561192</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>62756</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>659804</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>302161</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>107844</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400773</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>116808</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8964,8 +8921,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5925672" y="2074436"/>
-          <a:ext cx="3093769" cy="1142368"/>
+          <a:off x="4021569" y="1506073"/>
+          <a:ext cx="3102733" cy="1120853"/>
           <a:chOff x="4177554" y="1479179"/>
           <a:chExt cx="3102733" cy="1120853"/>
         </a:xfrm>
@@ -9165,8 +9122,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8815892" y="1561652"/>
-          <a:ext cx="2871447" cy="1038562"/>
+          <a:off x="8839200" y="1532965"/>
+          <a:ext cx="2878619" cy="1017047"/>
           <a:chOff x="8310281" y="1570166"/>
           <a:chExt cx="2878619" cy="1017047"/>
         </a:xfrm>
@@ -11015,6 +10972,2681 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>239052</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>2231</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCEEAB47-99C7-45D5-AEFC-7026037E81BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="975360" y="6431280"/>
+          <a:ext cx="6639852" cy="2333951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>187129</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>78633</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B851A7C2-DD8A-4565-8AFC-5B6DFBE7E4CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="853440"/>
+          <a:ext cx="3143689" cy="3781953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Speech Bubble: Rectangle with Corners Rounded 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4C0512-9A9D-436C-B8C1-AE71C6119039}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4053840" y="327660"/>
+          <a:ext cx="4305300" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -51229"/>
+            <a:gd name="adj2" fmla="val 105081"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>สร้าง</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>folder static </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ใน </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>folder app  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Speech Bubble: Rectangle with Corners Rounded 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2925B3D-C9D1-4017-A63F-5BCA24C10F11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4785360" y="1280160"/>
+          <a:ext cx="8191500" cy="1920240"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66661"/>
+            <a:gd name="adj2" fmla="val -4972"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>มันจะเหมือน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>templates </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>คือต้องสร้าง </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>folder </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ชื่อเดียวกับ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>app </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ข้างในอีกที แล้วที่เหลืออยากทำอะไรก็ทำ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>สร้างโฟลเดอร์ย่อย</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>template </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>มันไว้เก็บ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>html </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ส่วนที่เหลือ พวก </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>js css images font </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>เอาไปใส่ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>static </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ให้หมดเลย </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Speech Bubble: Rectangle with Corners Rounded 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC0FD12-8F9E-4139-BAB1-DFD43F84C3BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3451860" y="4648200"/>
+          <a:ext cx="6225540" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61638"/>
+            <a:gd name="adj2" fmla="val -53385"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>example</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>สร้างไว้เก็บตัวอย่างเฉยๆ ไม่ต้องสนใจ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Speech Bubble: Rectangle with Corners Rounded 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42FB5373-72A8-4861-8181-2C7494476D39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5478780" y="6316980"/>
+          <a:ext cx="3345180" cy="594360"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69574"/>
+            <a:gd name="adj2" fmla="val 77431"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>เสร็จแล้วมาใส่</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> พวกนี้</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5DF8995-66D7-4DDC-8630-DB04F6F45723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1074420" y="5974080"/>
+          <a:ext cx="1600200" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>settings.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>328139</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>156564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47AA581B-7D90-42EF-8858-3DBA8FED090D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="922020" y="9189720"/>
+          <a:ext cx="3429479" cy="2534004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>505762</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>164168</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6976DB80-045D-4004-8F09-7D6A9C70CFA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4518660" y="9311640"/>
+          <a:ext cx="6716062" cy="2419688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Speech Bubble: Rectangle with Corners Rounded 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39811E6-9D7F-4D24-B984-31253B507E03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396740" y="11955780"/>
+          <a:ext cx="3345180" cy="594360"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69574"/>
+            <a:gd name="adj2" fmla="val -85390"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>พวกนี้</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> มันใส่มาอยู่แล้ว</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Speech Bubble: Rectangle with Corners Rounded 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B820CE3D-153D-4F7A-97CA-267DDD311378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5958840" y="7886700"/>
+          <a:ext cx="1417320" cy="594360"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -81419"/>
+            <a:gd name="adj2" fmla="val 22303"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ชื่อแอป</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Speech Bubble: Rectangle with Corners Rounded 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB51178A-2965-4954-85F2-C64F292966C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4442460" y="14790420"/>
+          <a:ext cx="7833360" cy="1043940"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59457"/>
+            <a:gd name="adj2" fmla="val -86120"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ตอนจบต้องทำ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>python manage.py collectstatic </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>เหมือน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>migration </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>มันจะเจนโฟลเดอร์สำหรับ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Django </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>213785</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB0DC7D-6AE0-4B78-BB0E-0841473F5DC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="518160" y="13685520"/>
+          <a:ext cx="3048425" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33370</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>50181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0555B8-202A-4C34-8D98-47DF1C106AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1021080" y="17990820"/>
+          <a:ext cx="7059010" cy="4667901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Speech Bubble: Rectangle with Corners Rounded 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C35228-C112-4712-85B4-4F307A8525C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="17800320"/>
+          <a:ext cx="7833360" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -75508"/>
+            <a:gd name="adj2" fmla="val 34318"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>load</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> static </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ที่หัวไฟล์ที่จะใช้ เอาไปใส่ที่ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>base </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>รันไม่ผ่านนะ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Speech Bubble: Rectangle with Corners Rounded 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C554D7E0-820C-459C-9371-39F9187B557D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="20810220"/>
+          <a:ext cx="2971800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -58971"/>
+            <a:gd name="adj2" fmla="val 190985"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>เวลาจะใช้เขียนอย่างงี้</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Speech Bubble: Rectangle with Corners Rounded 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD6A543-0FC6-4710-8B0E-543CB6C60E2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4564380" y="3307080"/>
+          <a:ext cx="6400800" cy="777240"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -64399"/>
+            <a:gd name="adj2" fmla="val -29482"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ไฟล์นี้เผลอวางไว้เพื่อเทสเฉยๆ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ไม่ต้องสนใจ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>32796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>490802</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756C2D4C-4CAD-464C-8BBA-A52A98D994A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304799" y="28600176"/>
+          <a:ext cx="6891603" cy="2131284"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>653919</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>7780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348B2B22-C684-4132-9288-05AE0DB5BF45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="25504140"/>
+          <a:ext cx="3610479" cy="1143160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>453829</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>109113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF52506A-7B86-4B79-B16F-4891D6A7DC52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5356860" y="24018240"/>
+          <a:ext cx="3143689" cy="3781953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Speech Bubble: Rectangle with Corners Rounded 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4725E95-BBB5-4A0B-8CD5-BF9873D393D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1645920" y="22913340"/>
+          <a:ext cx="3558540" cy="1958340"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -26209"/>
+            <a:gd name="adj2" fmla="val 81257"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>html </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ปกติใช้แค่นี้ก็ขึ้น</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> แค่วางรูปไว้พาทเดียวกับ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>html </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ก็จบเลย </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>151998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>360332</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB24CDA2-F5F2-4934-AA18-4AEC26BAB8E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7833359" y="28719378"/>
+          <a:ext cx="5938173" cy="2522621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Speech Bubble: Rectangle with Corners Rounded 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E3F912-03CD-4928-A6C6-A929ACBA9CA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9227820" y="27813000"/>
+          <a:ext cx="4023360" cy="1097280"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -73961"/>
+            <a:gd name="adj2" fmla="val 59467"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>รันด้วย </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>live</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> server (html </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ปกติ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>จะมองเห็น</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Speech Bubble: Rectangle with Corners Rounded 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A28EDF2-E5DA-497D-A701-7E24767628F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="27233880"/>
+          <a:ext cx="4023360" cy="1097280"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -48582"/>
+            <a:gd name="adj2" fmla="val 99745"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>รันด้วย </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>django</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (manage.py runserver) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>จะมองไม่เห็น</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Speech Bubble: Rectangle with Corners Rounded 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEE86CD-9082-4B2F-9F16-5F6F07E7A158}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="891540" y="31866840"/>
+          <a:ext cx="4023360" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -48014"/>
+            <a:gd name="adj2" fmla="val -96653"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>รูปบนใช้เขียนแบบปกติ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 2รูป ล่างใช้เขียนแบบ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>static </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>โค้ดเดียวกันเลย แค่รันคนละวิธีก็เห็นต่างกัน</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>453807</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>148641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05334501-E03F-46CF-B368-959FD1989243}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="28879800"/>
+          <a:ext cx="2991267" cy="362001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>444781</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>80055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C497AEF3-FD38-4B34-9A5F-544B434CC884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="31302960"/>
+          <a:ext cx="6563641" cy="323895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>14380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>488871</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>109005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D0A8D8-03F8-4226-A951-3A2A553689C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8648700" y="18591940"/>
+          <a:ext cx="3239691" cy="1146185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Speech Bubble: Rectangle with Corners Rounded 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D96F02-15CD-4792-8658-B6A2D9E230A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9837420" y="19918680"/>
+          <a:ext cx="4015740" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -45381"/>
+            <a:gd name="adj2" fmla="val -81237"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>มีคนถามมาแล้ว</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="2400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ยังไงก็ต้องแอดทุกไฟล์ที่ใช้ </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11314,7 +13946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD8ACB7-771E-4864-A3B4-5501E0C45DD0}">
   <dimension ref="A78:A203"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AH66" sqref="AH66"/>
     </sheetView>
   </sheetViews>
@@ -11457,8 +14089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824013CA-CD54-4EF9-AC0D-7819523D3718}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AF105" sqref="AF105"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11472,7 +14104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8ED685-63E3-4608-B33E-8231914CA438}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -11501,4 +14133,19 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69073D47-7CA6-4BF6-83A9-05A8EE866BA3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/text.xlsx
+++ b/text.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPY35\Desktop\PYE\anki_th_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779E55B6-885A-4159-A31C-AC76DC321AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCE122C-C67D-4797-A6DA-9088E842FFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{709CD5AC-28F5-4E1A-B440-37CF72E1A49D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{709CD5AC-28F5-4E1A-B440-37CF72E1A49D}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="home_page" sheetId="4" r:id="rId3"/>
     <sheet name="livereload" sheetId="3" r:id="rId4"/>
     <sheet name="static" sheetId="5" r:id="rId5"/>
+    <sheet name="deploy" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,6 +36,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>delete /staticfiles/admin</t>
+  </si>
+  <si>
+    <t>clear all txt (remain only usage file with blank content)</t>
+  </si>
+  <si>
+    <t>put all reference / env folder to same level with manager.py</t>
+  </si>
+  <si>
+    <t>heroku need manager.py on top level</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13642,6 +13660,99 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>204706</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>51785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E09F85-AF03-416A-90A9-DC5A668FB751}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="175260"/>
+          <a:ext cx="6239746" cy="2505425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>378272</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>40426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC10389F-67DF-40E9-A942-70FC730AE5B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="2979420"/>
+          <a:ext cx="7754432" cy="3019846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -14089,8 +14200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824013CA-CD54-4EF9-AC0D-7819523D3718}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14148,4 +14259,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234BD952-047C-46C7-A9F9-193A90281F92}">
+  <dimension ref="B38:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/text.xlsx
+++ b/text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPY35\Desktop\PYE\anki_th_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCE122C-C67D-4797-A6DA-9088E842FFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EBD875-3B5E-4B49-877F-33B84E8F0FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{709CD5AC-28F5-4E1A-B440-37CF72E1A49D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{709CD5AC-28F5-4E1A-B440-37CF72E1A49D}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -4585,16 +4585,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>62753</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>125504</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>320448</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:colOff>212871</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>143437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4609,7 +4609,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="735106" y="125504"/>
+          <a:off x="627529" y="0"/>
           <a:ext cx="14377107" cy="15562731"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4655,16 +4655,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>80681</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>385481</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>89645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>636494</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4679,8 +4679,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3442446" y="3827929"/>
-          <a:ext cx="4589930" cy="4688542"/>
+          <a:off x="1730187" y="9233645"/>
+          <a:ext cx="4589930" cy="1873625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6725,16 +6725,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>322728</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>80681</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53786</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>170327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>627530</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>170329</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>80681</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6749,7 +6749,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1667434" y="3845857"/>
+          <a:off x="3415551" y="3218327"/>
           <a:ext cx="977155" cy="4572001"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7957,16 +7957,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>107574</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>116541</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>591668</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>430305</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:colOff>242046</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161363</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7981,8 +7981,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1452280" y="1909482"/>
-          <a:ext cx="1667437" cy="555812"/>
+          <a:off x="1264021" y="5163670"/>
+          <a:ext cx="1667437" cy="555811"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8039,16 +8039,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>385479</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>510985</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>108920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>251010</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>115045</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>376515</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>79185</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8063,8 +8063,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419597" y="1945341"/>
-          <a:ext cx="1882589" cy="500528"/>
+          <a:off x="3200397" y="8535744"/>
+          <a:ext cx="1882589" cy="508147"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8121,16 +8121,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>116540</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>10308</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>125505</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>295836</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>170490</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>197225</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>98771</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8145,8 +8145,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8857128" y="2879014"/>
-          <a:ext cx="1524002" cy="1235947"/>
+          <a:off x="7521387" y="9359152"/>
+          <a:ext cx="1416426" cy="959384"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8203,16 +8203,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>125504</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>98611</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>116540</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>73421</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>64455</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8227,8 +8227,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8866092" y="5656729"/>
-          <a:ext cx="1524002" cy="1229868"/>
+          <a:off x="7512422" y="10524564"/>
+          <a:ext cx="1416425" cy="656126"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8285,16 +8285,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>636492</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>107575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457197</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>502022</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>70220</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>115044</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8309,8 +8309,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8704727" y="1900516"/>
-          <a:ext cx="1882589" cy="500528"/>
+          <a:off x="7853079" y="8435788"/>
+          <a:ext cx="2949391" cy="464668"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8318,7 +8318,7 @@
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="99FFCC"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -8346,12 +8346,15 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="2800">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Download</a:t>
           </a:r>
@@ -8359,6 +8362,9 @@
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -9333,16 +9339,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>358587</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>62752</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>627528</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>64097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>564776</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:colOff>161364</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9357,8 +9363,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1703293" y="9206752"/>
-          <a:ext cx="2895601" cy="788895"/>
+          <a:off x="1299881" y="11897509"/>
+          <a:ext cx="2895601" cy="796515"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9737,16 +9743,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>367552</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>53787</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>636493</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>403411</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9761,7 +9767,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1712258" y="10094258"/>
+          <a:off x="1308846" y="12792635"/>
           <a:ext cx="2725271" cy="788895"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -9827,16 +9833,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>340658</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>510988</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>116541</xdr:rowOff>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9851,7 +9857,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1685364" y="10981764"/>
+          <a:off x="1281952" y="13680141"/>
           <a:ext cx="2859742" cy="788895"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -9904,6 +9910,342 @@
               </a:solidFill>
             </a:rPr>
             <a:t> Name :</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>251011</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>376518</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle: Rounded Corners 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77233AA0-BBAD-4E14-9532-F5FE361D6524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5629835" y="4025152"/>
+          <a:ext cx="2142565" cy="860613"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sound</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179297</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>493061</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle: Rounded Corners 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D30B2A50-23BE-4832-B6E0-C0D74513E41D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5558121" y="5522259"/>
+          <a:ext cx="2330822" cy="779929"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Exactly</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>188260</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466165</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle: Rounded Corners 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D212A286-FD97-423D-BE22-7591C6689037}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8928848" y="3469341"/>
+          <a:ext cx="2294964" cy="3980329"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Gen</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> output</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>663386</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>528918</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle: Rounded Corners 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC56F4F8-819D-44BF-8183-F6B503824712}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9403974" y="9368117"/>
+          <a:ext cx="1882591" cy="1846730"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>apkg</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="2800">
             <a:solidFill>
@@ -14200,8 +14542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824013CA-CD54-4EF9-AC0D-7819523D3718}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14265,7 +14607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234BD952-047C-46C7-A9F9-193A90281F92}">
   <dimension ref="B38:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>

--- a/text.xlsx
+++ b/text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPY35\Desktop\PYE\anki_th_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EBD875-3B5E-4B49-877F-33B84E8F0FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A93666-0716-44CE-A135-E9C7F772D7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{709CD5AC-28F5-4E1A-B440-37CF72E1A49D}"/>
   </bookViews>
@@ -4655,14 +4655,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>385481</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>349622</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>89645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>528917</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>170329</xdr:rowOff>
     </xdr:to>
@@ -4679,8 +4679,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1730187" y="9233645"/>
-          <a:ext cx="4589930" cy="1873625"/>
+          <a:off x="1021975" y="9233645"/>
+          <a:ext cx="2868707" cy="1873625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8039,16 +8039,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>510985</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>242045</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>108920</xdr:rowOff>
+      <xdr:rowOff>55132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>376515</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403413</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>79185</xdr:rowOff>
+      <xdr:rowOff>25397</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8063,8 +8063,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3200397" y="8535744"/>
-          <a:ext cx="1882589" cy="508147"/>
+          <a:off x="1586751" y="8481956"/>
+          <a:ext cx="1506074" cy="508147"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10246,6 +10246,209 @@
               </a:solidFill>
             </a:rPr>
             <a:t>apkg</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>224119</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>26896</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rectangle: Rounded Corners 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7264A1F8-0643-4011-A9E9-BD0CEA2C1613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4930590" y="9269506"/>
+          <a:ext cx="537882" cy="1873625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="99FFCC"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>等</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>キロ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>否</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>七</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="500">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>四</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>439268</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>37203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600636</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>7468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle: Rounded Corners 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D89F37C2-9121-417B-BD2D-B387D4BE62CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4473386" y="8464027"/>
+          <a:ext cx="1506074" cy="508147"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2362"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="99FFCC"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Fail</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="2800">
             <a:solidFill>
@@ -14542,8 +14745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824013CA-CD54-4EF9-AC0D-7819523D3718}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X35" sqref="X35"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X45" sqref="X45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/text.xlsx
+++ b/text.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPY35\Desktop\PYE\anki_th_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A93666-0716-44CE-A135-E9C7F772D7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56D31E6-9694-485C-A535-388D8F5F5939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{709CD5AC-28F5-4E1A-B440-37CF72E1A49D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{709CD5AC-28F5-4E1A-B440-37CF72E1A49D}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="layout" sheetId="2" r:id="rId2"/>
-    <sheet name="home_page" sheetId="4" r:id="rId3"/>
-    <sheet name="livereload" sheetId="3" r:id="rId4"/>
-    <sheet name="static" sheetId="5" r:id="rId5"/>
-    <sheet name="deploy" sheetId="6" r:id="rId6"/>
+    <sheet name="Anki" sheetId="7" r:id="rId3"/>
+    <sheet name="Heroku" sheetId="9" r:id="rId4"/>
+    <sheet name="home_page" sheetId="4" r:id="rId5"/>
+    <sheet name="livereload" sheetId="3" r:id="rId6"/>
+    <sheet name="static" sheetId="5" r:id="rId7"/>
+    <sheet name="deploy" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>delete /staticfiles/admin</t>
   </si>
@@ -51,6 +53,93 @@
   </si>
   <si>
     <t>heroku need manager.py on top level</t>
+  </si>
+  <si>
+    <t>C:\Users\KPY35\AppData\Roaming\Anki2\User 1\collection.media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ถ้าลง apkg ที่มี media (mp3) ซ้ำ </t>
+  </si>
+  <si>
+    <t>ลง output.apkg</t>
+  </si>
+  <si>
+    <t>ลง output2.apkg</t>
+  </si>
+  <si>
+    <t>ลง output3.apkg</t>
+  </si>
+  <si>
+    <t>ลง output.apkg ซ้ำ</t>
+  </si>
+  <si>
+    <t>มันจะไม่เพิ่มเพราะไม่มีการ์ดใหม่</t>
+  </si>
+  <si>
+    <t xml:space="preserve">มันเพื่มเพราะ เห็นการ์ดใหม่ แต่ ใช้ sound ชื่อเดียวกับอันแรก ทำให้มันเพิ่มชื่อใหม่ตาม model id </t>
+  </si>
+  <si>
+    <t>1) บอกให้ user มาลบเอง</t>
+  </si>
+  <si>
+    <t>2) สุ่มเปลี่ยนเลข model id ทุกครั้งที่เจน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) เปลี่ยนชื่อไฟล์ให้ขึ้นกับเวลาไปเลย </t>
+  </si>
+  <si>
+    <t>วิธีแก้มีสามวิธี</t>
+  </si>
+  <si>
+    <t>ยังไงก็ควรบอก ตำแหน่งเก็บไฟล์ให้ user มาลบ เพราะถ้าลงไปหลายๆ deck ไม่ว่าจะใช้วิธี 2) หรือ 3) มันก็จะเหลือไฟล์ไว้อยู่ดี</t>
+  </si>
+  <si>
+    <t>มันไม่เพิ่มแล่วเพราะมันจะเพิ่มได้แค่ ชื่อ model id รอบเดียว ทีนี้มันจะเริ่มใช้แต่เสียงของ output2.apkg อย่างเดียวล่ะ</t>
+  </si>
+  <si>
+    <t>ต่อให้ลบการ์ด หรือ เดค ไฟล์เสียงก็ยังคงอยู่ ต้องตามมาลบที่นี้ด้วย</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deploy แบบ Heroku CLI </t>
+  </si>
+  <si>
+    <t>แบบ github</t>
+  </si>
+  <si>
+    <t>แค่ลิ้ง github แล้วกด deploy จบเลย</t>
+  </si>
+  <si>
+    <t>ต้องสร้างโฟลเดอร์ workspace แล้ว clone มา</t>
+  </si>
+  <si>
+    <t>จะได้ .git เปล่าๆมาอันนึง</t>
+  </si>
+  <si>
+    <t>แล้วค่อยเอาโค้ดไปใส่</t>
+  </si>
+  <si>
+    <t>$ git add .</t>
+  </si>
+  <si>
+    <t>$ git commit -am "make it better"</t>
+  </si>
+  <si>
+    <t>$ git push heroku master</t>
+  </si>
+  <si>
+    <t>heroku logs --tail</t>
+  </si>
+  <si>
+    <t>อันนี้ไว้ดู log post get , veiws.py</t>
+  </si>
+  <si>
+    <t>เราจะ deploy สลับแบบไปมาก็ได้ ตัวเซิฟเวอร์จะยึดอันล่าสุดที่ส่งขึ้นไป</t>
+  </si>
+  <si>
+    <t>ถ้าฝั่ง Heroku CLI จะ deploy ทับ github ต้อง commit ด้วย แม้จะไม่มีไฟล์เปลี่ยนก็ให้ commit empty ไปแล้ว push</t>
+  </si>
+  <si>
+    <t>git commit --allow-empty -m "Trigger Build"</t>
   </si>
 </sst>
 </file>
@@ -10464,6 +10553,417 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>417523</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>141116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C79E67FB-D475-4EC1-A0AE-055DB52F43E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4770120" y="1021080"/>
+          <a:ext cx="2353003" cy="1047896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15612</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>91722</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EC9BD9-B4D8-4C2A-BC9C-B8397D02CB4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="2804160"/>
+          <a:ext cx="2667372" cy="2019582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>516466</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>5831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBEDE69-D19C-472A-A72B-DC676B707956}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1013460" y="754380"/>
+          <a:ext cx="1514686" cy="828791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>655692</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>91722</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B535E964-DA45-44EE-933A-637647FCCE06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693920" y="5783580"/>
+          <a:ext cx="2667372" cy="2019582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>379423</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>148736</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5CF023-FF0A-4384-BA86-DD32626AFF5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10096500" y="1028700"/>
+          <a:ext cx="2353003" cy="1047896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>348943</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>148736</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB905E2-0CA2-4520-B27B-5602CF657E93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10066020" y="2781300"/>
+          <a:ext cx="2353003" cy="1047896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>100458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C804BD58-C61E-42DD-BE01-5F4D37567B55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3147060" y="8688198"/>
+          <a:ext cx="5562600" cy="737742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>65033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77789D5-E05F-4E8A-812B-C72E8125205D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8656321" y="5623530"/>
+          <a:ext cx="3352800" cy="1276643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190648</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38892</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCAF5627-F8D3-418B-BF99-8CF6BF92F385}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7894320" y="1028700"/>
+          <a:ext cx="5036968" cy="4618512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10732,7 +11232,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11535,7 +12035,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -14210,7 +14710,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -14602,7 +15102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD8ACB7-771E-4864-A3B4-5501E0C45DD0}">
   <dimension ref="A78:A203"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AH66" sqref="AH66"/>
     </sheetView>
   </sheetViews>
@@ -14745,7 +15245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824013CA-CD54-4EF9-AC0D-7819523D3718}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="X45" sqref="X45"/>
     </sheetView>
   </sheetViews>
@@ -14757,6 +15257,179 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247BE328-637A-45A4-9BFA-0E63463E75A1}">
+  <dimension ref="B2:P56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="2" spans="2:16">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="6:16">
+      <c r="P24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="6:16">
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="6:16">
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="6:16">
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392A3015-49C4-4172-BE92-62D8915A7E80}">
+  <dimension ref="B2:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8ED685-63E3-4608-B33E-8231914CA438}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14771,7 +15444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF03134D-BF8C-4047-A648-6D3B291EA1C8}">
   <dimension ref="C7"/>
   <sheetViews>
@@ -14791,7 +15464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69073D47-7CA6-4BF6-83A9-05A8EE866BA3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14806,12 +15479,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234BD952-047C-46C7-A9F9-193A90281F92}">
   <dimension ref="B38:B41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
